--- a/2022/Price List/Symphony Price List  06.06.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.06.2022.xlsx
@@ -3016,7 +3016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/2022/Price List/Symphony Price List  06.06.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.06.2022.xlsx
@@ -3015,8 +3015,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
